--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF519C-4439-4158-810F-04D96E436547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784DC7F-DB09-4133-8C01-21697235BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
     <sheet name="Outputs" sheetId="13" r:id="rId2"/>
     <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
+    <sheet name="TimeProfile_Range" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>StudyId</t>
   </si>
   <si>
@@ -247,6 +245,21 @@
   </si>
   <si>
     <t>shape used in plots, if empty default colors are used, please fill all or none</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>fill color used in plots, if empty default colors are used, please fill all or none</t>
+  </si>
+  <si>
+    <t>TimeProfile</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>StudyArm</t>
   </si>
 </sst>
 </file>
@@ -693,102 +706,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1234</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -798,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C44529F-9EB1-491B-87DB-746A87886384}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,9 +828,10 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -829,25 +847,31 @@
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -866,10 +890,10 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +918,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>18</v>
@@ -909,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -948,35 +972,35 @@
         <v>1</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="Z1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -987,18 +1011,18 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1021,7 +1045,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1224,7 +1248,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E97C6889-0A30-48C2-9647-A930450F01CD}">
           <x14:formula1>
-            <xm:f>DataGroups!$B$3:$B$100</xm:f>
+            <xm:f>DataGroups!$A$3:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
@@ -1240,13 +1264,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CE6B6B-49C8-46BC-A7BF-6118BE2D8D40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,20 +1497,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1491,12 +1536,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784DC7F-DB09-4133-8C01-21697235BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F76705-4AC9-47C2-9B10-663C6B931DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
     <sheet name="Outputs" sheetId="13" r:id="rId2"/>
     <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
-    <sheet name="TimeProfile_Range" sheetId="15" r:id="rId4"/>
+    <sheet name="TimeRange" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -253,13 +253,49 @@
     <t>fill color used in plots, if empty default colors are used, please fill all or none</t>
   </si>
   <si>
-    <t>TimeProfile</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>StudyArm</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>firstApplication</t>
+  </si>
+  <si>
+    <t>lastApplication</t>
+  </si>
+  <si>
+    <t>suffix of TimeRange_columns</t>
+  </si>
+  <si>
+    <t>CaptionText</t>
+  </si>
+  <si>
+    <t>Zoom on the first dose.</t>
+  </si>
+  <si>
+    <t>Zoom on steady state dose.</t>
+  </si>
+  <si>
+    <t>TimeLabel</t>
+  </si>
+  <si>
+    <t>time label for plot</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time after dose</t>
+  </si>
+  <si>
+    <t>added to plot caption</t>
   </si>
 </sst>
 </file>
@@ -708,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -725,13 +761,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>24</v>
@@ -893,7 +929,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,15 +1302,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CE6B6B-49C8-46BC-A7BF-6118BE2D8D40}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F76705-4AC9-47C2-9B10-663C6B931DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9D378-EF86-4ED5-91DD-FD8D5C8718AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -235,12 +235,6 @@
     <t>DataGroupIds</t>
   </si>
   <si>
-    <t>additionally inputs for ospsuite::plotTimeprofiles (e.g. "y2scale = 'linear'")</t>
-  </si>
-  <si>
-    <t>PlotInputs_TP</t>
-  </si>
-  <si>
     <t>color used in plots, if empty default colors are used, please fill all or none</t>
   </si>
   <si>
@@ -296,6 +290,15 @@
   </si>
   <si>
     <t>added to plot caption</t>
+  </si>
+  <si>
+    <t>FoldDistance_PvO</t>
+  </si>
+  <si>
+    <t>value of  fold distances line</t>
+  </si>
+  <si>
+    <t>Plot_QQ</t>
   </si>
 </sst>
 </file>
@@ -371,9 +374,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -383,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -427,6 +439,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,13 +790,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>24</v>
@@ -818,7 +847,7 @@
         <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -884,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -901,10 +930,10 @@
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,19 +952,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
     <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
@@ -944,22 +973,25 @@
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="4"/>
     <col min="13" max="15" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="11.42578125" style="1"/>
-    <col min="23" max="25" width="11.42578125" style="1"/>
-    <col min="26" max="26" width="24.28515625" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="1"/>
+    <col min="17" max="18" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="11.42578125" style="18"/>
+    <col min="20" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="9.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="18"/>
+    <col min="23" max="23" width="11.42578125" style="21"/>
+    <col min="24" max="26" width="11.42578125" style="22"/>
+    <col min="27" max="27" width="11.42578125" style="18"/>
+    <col min="28" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1002,40 +1034,43 @@
         <v>14</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="10"/>
@@ -1065,176 +1100,139 @@
       <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V2" s="17"/>
+      <c r="W2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="16:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P40" s="1"/>
-      <c r="Z40" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -1248,7 +1246,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
       <formula1>"fixed,free_y,free_x,free"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
@@ -1264,7 +1262,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{8167B0C7-537A-4711-ADD8-FE058C8C9DFB}">
       <formula1>"s, min, h, day(s), week(s), month(s), year(s), ks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"""by order", Scenario vs Output," Scenario vs TimeRange"""</x12ac:list>
@@ -1274,7 +1272,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:Y1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576 V3:Z1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
       <formula1>"WAHR,FALSCH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1304,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CE6B6B-49C8-46BC-A7BF-6118BE2D8D40}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,54 +1315,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1373,14 +1371,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1587,21 +1583,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1626,9 +1621,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9D378-EF86-4ED5-91DD-FD8D5C8718AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43E101-3227-4AF7-833C-B20BCD04A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Plot_QQ</t>
+  </si>
+  <si>
+    <t>IndividualIds</t>
+  </si>
+  <si>
+    <t>selects inividuals from a Scenario with an IndividualPopulation or from a data group</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,13 +453,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -952,39 +951,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="17.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="19" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
     <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="4"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="4"/>
-    <col min="13" max="15" width="11.42578125" style="1"/>
-    <col min="17" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="11.42578125" style="18"/>
-    <col min="20" max="20" width="11.42578125" style="1"/>
-    <col min="21" max="21" width="9.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="18"/>
-    <col min="23" max="23" width="11.42578125" style="21"/>
-    <col min="24" max="26" width="11.42578125" style="22"/>
-    <col min="27" max="27" width="11.42578125" style="18"/>
-    <col min="28" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="4"/>
+    <col min="14" max="16" width="11.42578125" style="1"/>
+    <col min="18" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="11.42578125" style="18"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="9.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="18"/>
+    <col min="25" max="27" width="11.42578125" style="19"/>
+    <col min="28" max="28" width="11.42578125" style="18"/>
+    <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -1009,65 +1008,68 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="17" t="s">
@@ -1084,159 +1086,163 @@
       <c r="H2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="17"/>
+      <c r="X2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
       <c r="AA2" s="17"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P40" s="1"/>
+      <c r="AB2" s="17"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P1048576" xr:uid="{13F1023F-5A98-4D6E-BA71-EA9333B2FA4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576" xr:uid="{13F1023F-5A98-4D6E-BA71-EA9333B2FA4D}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"""linear, log""","""linear""","""log"""</x12ac:list>
@@ -1246,10 +1252,10 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
       <formula1>"fixed,free_y,free_x,free"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"linear, log",linear,log</x12ac:list>
@@ -1259,10 +1265,10 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{8167B0C7-537A-4711-ADD8-FE058C8C9DFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{8167B0C7-537A-4711-ADD8-FE058C8C9DFB}">
       <formula1>"s, min, h, day(s), week(s), month(s), year(s), ks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"""by order", Scenario vs Output," Scenario vs TimeRange"""</x12ac:list>
@@ -1272,7 +1278,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576 V3:Z1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 W3:AA1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
       <formula1>"WAHR,FALSCH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1371,15 +1377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1582,7 +1579,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
@@ -1593,15 +1590,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1620,7 +1618,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1629,4 +1627,12 @@
     <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43E101-3227-4AF7-833C-B20BCD04A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289AE929-DB87-4803-AF3B-A583DA8F722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
@@ -271,12 +271,6 @@
     <t>CaptionText</t>
   </si>
   <si>
-    <t>Zoom on the first dose.</t>
-  </si>
-  <si>
-    <t>Zoom on steady state dose.</t>
-  </si>
-  <si>
     <t>TimeLabel</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>selects inividuals from a Scenario with an IndividualPopulation or from a data group</t>
+  </si>
+  <si>
+    <t>Zoom on the first dose</t>
+  </si>
+  <si>
+    <t>Zoom on steady state dose</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>17</v>
@@ -1054,7 +1054,7 @@
         <v>56</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>57</v>
@@ -1066,7 +1066,7 @@
         <v>59</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>48</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="W2" s="17"/>
       <c r="X2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1365,10 +1365,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1377,6 +1377,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1579,27 +1599,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1616,23 +1635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289AE929-DB87-4803-AF3B-A583DA8F722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D5127-3B47-4664-9C91-A4B4C9D245D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Zoom on steady state dose</t>
+  </si>
+  <si>
+    <t>1 = TRUE, 0 = FALSE</t>
   </si>
 </sst>
 </file>
@@ -954,10 +957,10 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,21 +1112,33 @@
       <c r="S2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="17"/>
+      <c r="T2" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="U2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="17"/>
+      <c r="W2" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="X2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
+      <c r="Y2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I3" s="4"/>
@@ -1278,8 +1293,8 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 W3:AA1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
-      <formula1>"WAHR,FALSCH"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 W3:AB1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
+      <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,26 +1392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1599,10 +1594,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1619,20 +1645,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D5127-3B47-4664-9C91-A4B4C9D245D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE403505-7C64-4E15-9D8A-577968E4FD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="3435" yWindow="2805" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
@@ -38,276 +38,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+  <si>
+    <t>TimeRange_total</t>
+  </si>
+  <si>
+    <t>used in figure caption</t>
+  </si>
+  <si>
+    <t>passed on to facet_wrap , scales</t>
+  </si>
+  <si>
+    <t>ylimit used of linear scale, should be something like c(0,NA) to set lower limit to 0</t>
+  </si>
+  <si>
+    <t>ylimit used of log scale, should be something like c(0.1,NA) to set lower limit to 0.1</t>
+  </si>
+  <si>
+    <t>ReferenceScenario</t>
+  </si>
+  <si>
+    <t>Offset between Scenario and Reference</t>
+  </si>
+  <si>
+    <t>OutputPathIds</t>
+  </si>
+  <si>
+    <t>ScenarioCaptionName</t>
+  </si>
+  <si>
+    <t>TimeRange_firstApplication</t>
+  </si>
+  <si>
+    <t>TimeRange_lastApplication</t>
+  </si>
+  <si>
+    <t>TimeOffset_Reference</t>
+  </si>
+  <si>
+    <t>scale of y axis</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>TimeUnit</t>
+  </si>
+  <si>
+    <t>PlotName</t>
+  </si>
+  <si>
+    <t>TimeOffset</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>DisplayUnit</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>OutputPath</t>
+  </si>
+  <si>
+    <t>OutputPathId</t>
+  </si>
+  <si>
+    <t>meta data used for electronic package data</t>
+  </si>
+  <si>
+    <t>used for substructure of electronic package</t>
+  </si>
+  <si>
+    <t>reference used in figure footnotes in report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name used in report </t>
+  </si>
+  <si>
+    <t>study number of data</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>DataSection</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>StudyId</t>
+  </si>
+  <si>
+    <t>group identifier used in observed, typcially a study arm</t>
+  </si>
+  <si>
+    <t>identifier of observed data</t>
+  </si>
+  <si>
+    <t>model path</t>
+  </si>
+  <si>
+    <t>name used for legend and captions</t>
+  </si>
+  <si>
+    <t>unit to display</t>
+  </si>
+  <si>
+    <t>all plots with the same PlotName are plotted together, but in different facets</t>
+  </si>
+  <si>
+    <t>PlotCaptionAddon</t>
+  </si>
+  <si>
+    <t>outputs in brackets are plotted in the same panel facet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c(0,24) or one of the following  total, firstApplication, lastApplication </t>
+  </si>
+  <si>
+    <t>time offset for simulation</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>FacetType</t>
+  </si>
+  <si>
+    <t>FacetScale</t>
+  </si>
+  <si>
+    <t>Plot_TimeProfiles</t>
+  </si>
+  <si>
+    <t>Plot_PredictedVsObserved</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsAsHistogram</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsVsTime</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsVsObserved</t>
+  </si>
+  <si>
+    <t>DefaultScenario</t>
+  </si>
+  <si>
+    <t>used as suggestion for plots</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>DataGroupIds</t>
+  </si>
+  <si>
+    <t>color used in plots, if empty default colors are used, please fill all or none</t>
+  </si>
+  <si>
+    <t>shape used in plots, if empty default colors are used, please fill all or none</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>fill color used in plots, if empty default colors are used, please fill all or none</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>StudyArm</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>firstApplication</t>
+  </si>
+  <si>
+    <t>lastApplication</t>
+  </si>
+  <si>
+    <t>suffix of TimeRange_columns</t>
+  </si>
+  <si>
+    <t>CaptionText</t>
+  </si>
+  <si>
+    <t>TimeLabel</t>
+  </si>
+  <si>
+    <t>time label for plot</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time after dose</t>
+  </si>
+  <si>
+    <t>added to plot caption</t>
+  </si>
+  <si>
+    <t>FoldDistance_PvO</t>
+  </si>
+  <si>
+    <t>value of  fold distances line</t>
+  </si>
+  <si>
+    <t>Plot_QQ</t>
+  </si>
+  <si>
+    <t>IndividualIds</t>
+  </si>
+  <si>
+    <t>selects inividuals from a Scenario with an IndividualPopulation or from a data group</t>
+  </si>
+  <si>
+    <t>Zoom on the first dose</t>
+  </si>
+  <si>
+    <t>Zoom on steady state dose</t>
+  </si>
+  <si>
+    <t>yScale</t>
+  </si>
   <si>
     <t>ylimit_linear</t>
   </si>
   <si>
     <t>ylimit_log</t>
-  </si>
-  <si>
-    <t>TimeRange_total</t>
-  </si>
-  <si>
-    <t>used in figure caption</t>
-  </si>
-  <si>
-    <t>passed on to facet_wrap , scales</t>
-  </si>
-  <si>
-    <t>ylimit used of linear scale, should be something like c(0,NA) to set lower limit to 0</t>
-  </si>
-  <si>
-    <t>ylimit used of log scale, should be something like c(0.1,NA) to set lower limit to 0.1</t>
-  </si>
-  <si>
-    <t>ReferenceScenario</t>
-  </si>
-  <si>
-    <t>Offset between Scenario and Reference</t>
-  </si>
-  <si>
-    <t>OutputPathIds</t>
-  </si>
-  <si>
-    <t>ScenarioCaptionName</t>
-  </si>
-  <si>
-    <t>TimeRange_firstApplication</t>
-  </si>
-  <si>
-    <t>TimeRange_lastApplication</t>
-  </si>
-  <si>
-    <t>TimeOffset_Reference</t>
-  </si>
-  <si>
-    <t>yScale</t>
-  </si>
-  <si>
-    <t>scale of y axis</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>TimeUnit</t>
-  </si>
-  <si>
-    <t>PlotName</t>
-  </si>
-  <si>
-    <t>TimeOffset</t>
-  </si>
-  <si>
-    <t>Organism|PeripheralVenousBlood|Aciclovir|Plasma (Peripheral Venous Blood)</t>
-  </si>
-  <si>
-    <t>Aciclovir_PVB</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>DisplayUnit</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>OutputPath</t>
-  </si>
-  <si>
-    <t>OutputPathId</t>
-  </si>
-  <si>
-    <t>ORAL</t>
-  </si>
-  <si>
-    <t>Model building &amp; evaluation</t>
-  </si>
-  <si>
-    <t>study 1234, 25mg PO SD - fasted</t>
-  </si>
-  <si>
-    <t>25gmg_fasted</t>
-  </si>
-  <si>
-    <t>meta data used for electronic package data</t>
-  </si>
-  <si>
-    <t>used for substructure of electronic package</t>
-  </si>
-  <si>
-    <t>reference used in figure footnotes in report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name used in report </t>
-  </si>
-  <si>
-    <t>study number of data</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
-    <t>DataSection</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>StudyId</t>
-  </si>
-  <si>
-    <t>group identifier used in observed, typcially a study arm</t>
-  </si>
-  <si>
-    <t>identifier of observed data</t>
-  </si>
-  <si>
-    <t>model path</t>
-  </si>
-  <si>
-    <t>name used for legend and captions</t>
-  </si>
-  <si>
-    <t>unit to display</t>
-  </si>
-  <si>
-    <t>all plots with the same PlotName are plotted together, but in different facets</t>
-  </si>
-  <si>
-    <t>PlotCaptionAddon</t>
-  </si>
-  <si>
-    <t>outputs in brackets are plotted in the same panel facet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c(0,24) or one of the following  total, firstApplication, lastApplication </t>
-  </si>
-  <si>
-    <t>time offset for simulation</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>FacetType</t>
-  </si>
-  <si>
-    <t>FacetScale</t>
-  </si>
-  <si>
-    <t>Plot_TimeProfiles</t>
-  </si>
-  <si>
-    <t>Plot_PredictedVsObserved</t>
-  </si>
-  <si>
-    <t>Plot_ResidualsAsHistogram</t>
-  </si>
-  <si>
-    <t>Plot_ResidualsVsTime</t>
-  </si>
-  <si>
-    <t>Plot_ResidualsVsObserved</t>
-  </si>
-  <si>
-    <t>DefaultScenario</t>
-  </si>
-  <si>
-    <t>used as suggestion for plots</t>
-  </si>
-  <si>
-    <t>study1234_25mg_fasted</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>DataGroupIds</t>
-  </si>
-  <si>
-    <t>color used in plots, if empty default colors are used, please fill all or none</t>
-  </si>
-  <si>
-    <t>shape used in plots, if empty default colors are used, please fill all or none</t>
-  </si>
-  <si>
-    <t>Fill</t>
-  </si>
-  <si>
-    <t>fill color used in plots, if empty default colors are used, please fill all or none</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>StudyArm</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>firstApplication</t>
-  </si>
-  <si>
-    <t>lastApplication</t>
-  </si>
-  <si>
-    <t>suffix of TimeRange_columns</t>
-  </si>
-  <si>
-    <t>CaptionText</t>
-  </si>
-  <si>
-    <t>TimeLabel</t>
-  </si>
-  <si>
-    <t>time label for plot</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Time after dose</t>
-  </si>
-  <si>
-    <t>added to plot caption</t>
-  </si>
-  <si>
-    <t>FoldDistance_PvO</t>
-  </si>
-  <si>
-    <t>value of  fold distances line</t>
-  </si>
-  <si>
-    <t>Plot_QQ</t>
-  </si>
-  <si>
-    <t>IndividualIds</t>
-  </si>
-  <si>
-    <t>selects inividuals from a Scenario with an IndividualPopulation or from a data group</t>
-  </si>
-  <si>
-    <t>Zoom on the first dose</t>
-  </si>
-  <si>
-    <t>Zoom on steady state dose</t>
-  </si>
-  <si>
-    <t>1 = TRUE, 0 = FALSE</t>
   </si>
 </sst>
 </file>
@@ -317,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,11 +326,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -415,15 +401,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,29 +411,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,7 +764,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,89 +779,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>63</v>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>1234</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -882,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C44529F-9EB1-491B-87DB-746A87886384}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,52 +866,44 @@
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -957,307 +917,311 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="17.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="4"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="4"/>
-    <col min="14" max="16" width="11.42578125" style="1"/>
-    <col min="18" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="11.42578125" style="18"/>
-    <col min="21" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="9.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="18"/>
-    <col min="25" max="27" width="11.42578125" style="19"/>
-    <col min="28" max="28" width="11.42578125" style="18"/>
-    <col min="29" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="X1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="W2" s="16"/>
+      <c r="X2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I3" s="4"/>
-      <c r="Q3" s="1"/>
+      <c r="I3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q38" s="1"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576" xr:uid="{13F1023F-5A98-4D6E-BA71-EA9333B2FA4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 W3:AA1048576" xr:uid="{50A8F186-B909-4CC8-A8B4-FB7EAC95A7DA}">
+      <formula1>"WAHR,FALSCH"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{F537E174-3979-4B84-9A3A-73CE98518721}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""by order", by Individual, Senario vs Output," Scenario vs TimeRange"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""by order, by Individual, Senario vs Output, Scenario vs TimeRange"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{62112E1B-1620-4348-8F06-AEAB29D022D2}">
+      <formula1>"s, min, h, day(s), week(s), month(s), year(s), ks"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3" xr:uid="{7761CBF1-8AEB-4A3B-A49F-00A36744B9AD}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"linear, log",linear,log</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"linear, log,linear,log"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{71359310-3806-4E37-A618-32976A95EAE0}">
+      <formula1>"fixed,free_y,free_x,free"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576" xr:uid="{8F0CD9ED-91E6-43CF-A097-B93B63373C01}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"""linear, log""","""linear""","""log"""</x12ac:list>
@@ -1267,47 +1231,18 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
-      <formula1>"fixed,free_y,free_x,free"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>"linear, log",linear,log</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"linear, log,linear,log"</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{8167B0C7-537A-4711-ADD8-FE058C8C9DFB}">
-      <formula1>"s, min, h, day(s), week(s), month(s), year(s), ks"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
-      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x12ac">
-          <x12ac:list>"""by order", Scenario vs Output," Scenario vs TimeRange"""</x12ac:list>
-        </mc:Choice>
-        <mc:Fallback>
-          <formula1>"""by order, Scenario vs Output, Scenario vs TimeRange"""</formula1>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576 W3:AB1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E97C6889-0A30-48C2-9647-A930450F01CD}">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" xr:uid="{A341E421-EEDA-4972-99DC-A36E294509CE}">
           <x14:formula1>
             <xm:f>DataGroups!$A$3:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{1576F840-501D-412D-B3C6-509681FFD27B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{47EF0DDF-DB15-4DB6-91C9-D51E50EF5A07}">
           <x14:formula1>
             <xm:f>Outputs!$A$3:$A$100</xm:f>
           </x14:formula1>
@@ -1336,54 +1271,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>78</v>
+      <c r="C2" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE403505-7C64-4E15-9D8A-577968E4FD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84842D64-1843-40C9-9813-D026ED0EF944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2805" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
     <sheet name="Outputs" sheetId="13" r:id="rId2"/>
     <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
     <sheet name="TimeRange" sheetId="15" r:id="rId4"/>
+    <sheet name="PK_DDIRatio" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>TimeRange_total</t>
   </si>
@@ -284,6 +285,51 @@
   </si>
   <si>
     <t>ylimit_log</t>
+  </si>
+  <si>
+    <t>Senario vs Output</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>displayGroup</t>
+  </si>
+  <si>
+    <t>dataMean</t>
+  </si>
+  <si>
+    <t>dataLowerCI</t>
+  </si>
+  <si>
+    <t>dataUpperCI</t>
+  </si>
+  <si>
+    <t>dataNObservation</t>
+  </si>
+  <si>
+    <t>Used in legend</t>
+  </si>
+  <si>
+    <t>path to pkAnalysis Control</t>
+  </si>
+  <si>
+    <t>path to pkAnalysis DDI</t>
+  </si>
+  <si>
+    <t>columns beginning with pkParameter_</t>
+  </si>
+  <si>
+    <t>used as y label and order criteria</t>
+  </si>
+  <si>
+    <t>DDIScenario</t>
+  </si>
+  <si>
+    <t>controllScenario</t>
+  </si>
+  <si>
+    <t>pkParameter</t>
   </si>
 </sst>
 </file>
@@ -369,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,11 +432,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,6 +513,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,11 +1000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3:R1048576"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1162,9 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I3" s="18"/>
       <c r="Q3" s="19"/>
+      <c r="R3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Q4" s="19"/>
@@ -1326,7 +1413,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38FCF4-AEEA-4CF0-9787-2BDDC6DB4526}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="20"/>
+    <col min="3" max="3" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1529,27 +1730,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1566,23 +1766,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84842D64-1843-40C9-9813-D026ED0EF944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DEC42-D2C0-44E9-94F5-2B92058C44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="3510" yWindow="2025" windowWidth="21600" windowHeight="12585" firstSheet="1" activeTab="4" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
     <sheet name="Outputs" sheetId="13" r:id="rId2"/>
     <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
     <sheet name="TimeRange" sheetId="15" r:id="rId4"/>
-    <sheet name="PK_DDIRatio" sheetId="16" r:id="rId5"/>
+    <sheet name="PKParameter_Forest" sheetId="16" r:id="rId5"/>
+    <sheet name="PKParameter_Boxplot" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>TimeRange_total</t>
   </si>
@@ -113,9 +114,6 @@
     <t>used for substructure of electronic package</t>
   </si>
   <si>
-    <t>reference used in figure footnotes in report</t>
-  </si>
-  <si>
     <t xml:space="preserve">name used in report </t>
   </si>
   <si>
@@ -152,9 +150,6 @@
     <t>unit to display</t>
   </si>
   <si>
-    <t>all plots with the same PlotName are plotted together, but in different facets</t>
-  </si>
-  <si>
     <t>PlotCaptionAddon</t>
   </si>
   <si>
@@ -290,46 +285,46 @@
     <t>Senario vs Output</t>
   </si>
   <si>
-    <t>displayName</t>
-  </si>
-  <si>
-    <t>displayGroup</t>
-  </si>
-  <si>
-    <t>dataMean</t>
-  </si>
-  <si>
-    <t>dataLowerCI</t>
-  </si>
-  <si>
-    <t>dataUpperCI</t>
-  </si>
-  <si>
-    <t>dataNObservation</t>
-  </si>
-  <si>
     <t>Used in legend</t>
   </si>
   <si>
-    <t>path to pkAnalysis Control</t>
-  </si>
-  <si>
-    <t>path to pkAnalysis DDI</t>
-  </si>
-  <si>
-    <t>columns beginning with pkParameter_</t>
-  </si>
-  <si>
     <t>used as y label and order criteria</t>
   </si>
   <si>
-    <t>DDIScenario</t>
-  </si>
-  <si>
-    <t>controllScenario</t>
-  </si>
-  <si>
-    <t>pkParameter</t>
+    <t>all rows with the same PlotName are plotted together, but may be splitted into different facets</t>
+  </si>
+  <si>
+    <t>all rows with the same PlotName are plotted together</t>
+  </si>
+  <si>
+    <t>Scenario for PKParameter</t>
+  </si>
+  <si>
+    <t>corresponds to name (identifier) of parameter</t>
+  </si>
+  <si>
+    <t>data identifier</t>
+  </si>
+  <si>
+    <t>reference used in figure footnotes in report for timeprofiles</t>
+  </si>
+  <si>
+    <t>ReferencePK</t>
+  </si>
+  <si>
+    <t>reference used in figure footnotes in report for pkparameters</t>
+  </si>
+  <si>
+    <t>DataGroupId</t>
+  </si>
+  <si>
+    <t>PkParameter</t>
+  </si>
+  <si>
+    <t>ScenarioGroup</t>
+  </si>
+  <si>
+    <t>used for Ratio calculation</t>
   </si>
 </sst>
 </file>
@@ -415,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -452,11 +447,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -513,7 +519,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -531,6 +536,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,41 +856,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="4" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>28</v>
@@ -888,43 +899,49 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
   </sheetData>
@@ -967,27 +984,27 @@
         <v>17</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1021,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,10 +1036,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>15</v>
@@ -1034,16 +1051,16 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>14</v>
@@ -1067,47 +1084,47 @@
         <v>10</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="X1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -1118,21 +1135,21 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -1152,7 +1169,7 @@
       </c>
       <c r="W2" s="16"/>
       <c r="X2" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
@@ -1163,7 +1180,7 @@
       <c r="I3" s="18"/>
       <c r="Q3" s="19"/>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1358,54 +1375,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1418,116 +1435,351 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="20"/>
-    <col min="3" max="3" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="20"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{792C056C-842D-43CE-9E49-6B69C47125CA}">
+          <x14:formula1>
+            <xm:f>DataGroups!$A$3:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{DB20D1E7-132B-469E-B785-72C8A94F8343}">
+          <x14:formula1>
+            <xm:f>Outputs!$A$3:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>J3:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6F42A9-EB04-49EF-B841-49D19DBC3899}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="19"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576" xr:uid="{2F4583BE-E321-4A03-9DEE-62A706DC60BF}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""linear, log""","""linear""","""log"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""linear, log"",""linear"",""log"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{EC9895E9-2CD1-4774-AEB5-DD1EBB216E5F}">
+      <formula1>"fixed,free_y,free_x,free"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{2778B072-5D77-4AA8-B53B-B1E8FD6538B8}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"linear, log",linear,log</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"linear, log,linear,log"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{1115E08D-3EC0-4EE3-A1C6-745CE9A06F4A}">
+          <x14:formula1>
+            <xm:f>Outputs!$A$3:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1730,10 +1982,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1750,20 +2033,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Plots.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DEC42-D2C0-44E9-94F5-2B92058C44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79796537-F5D6-4B72-A7F6-F331ED28BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2025" windowWidth="21600" windowHeight="12585" firstSheet="1" activeTab="4" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
     <sheet name="Outputs" sheetId="13" r:id="rId2"/>
-    <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
-    <sheet name="TimeRange" sheetId="15" r:id="rId4"/>
-    <sheet name="PKParameter_Forest" sheetId="16" r:id="rId5"/>
-    <sheet name="PKParameter_Boxplot" sheetId="17" r:id="rId6"/>
+    <sheet name="Scenarios" sheetId="18" r:id="rId3"/>
+    <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId4"/>
+    <sheet name="TimeRange" sheetId="15" r:id="rId5"/>
+    <sheet name="PKParameter_Forest" sheetId="16" r:id="rId6"/>
+    <sheet name="PKParameter_Boxplot" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>TimeRange_total</t>
   </si>
@@ -325,6 +326,30 @@
   </si>
   <si>
     <t>used for Ratio calculation</t>
+  </si>
+  <si>
+    <t>generates one plot per output</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>identifier of scenario</t>
+  </si>
+  <si>
+    <t>PkParameters</t>
+  </si>
+  <si>
+    <t>corresponds to name (identifier) of parameter, comma seperated list, creates one plot per Parameter</t>
+  </si>
+  <si>
+    <t>comma separated List, produce one facet row per outputPath</t>
+  </si>
+  <si>
+    <t>TimeShift</t>
+  </si>
+  <si>
+    <t>shift time axis, either numeric or empty, time shift is set to the  lower limit of the timerange, time axis will start at 0</t>
   </si>
 </sst>
 </file>
@@ -858,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +979,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,14 +1039,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0948D-5C19-464B-80A9-9CBBC966E2A5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:X1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,12 +1425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CE6B6B-49C8-46BC-A7BF-6118BE2D8D40}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,9 +1438,10 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -1383,8 +1451,11 @@
       <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>63</v>
       </c>
@@ -1394,8 +1465,11 @@
       <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1403,7 +1477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1414,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -1430,12 +1504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38FCF4-AEEA-4CF0-9787-2BDDC6DB4526}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1584,9 @@
       <c r="I2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="K2" s="24" t="s">
         <v>87</v>
       </c>
@@ -1538,28 +1614,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6F42A9-EB04-49EF-B841-49D19DBC3899}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
@@ -1569,100 +1646,114 @@
       <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>92</v>
+      <c r="H1" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>77</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="J2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
@@ -1749,7 +1840,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{EC9895E9-2CD1-4774-AEB5-DD1EBB216E5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576" xr:uid="{EC9895E9-2CD1-4774-AEB5-DD1EBB216E5F}">
       <formula1>"fixed,free_y,free_x,free"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{2778B072-5D77-4AA8-B53B-B1E8FD6538B8}">
@@ -1780,6 +1871,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7db5ef2c9b694ee90a55e1e15107ca02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddfc242a629ea5bba70a4577bac7893e" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -1982,7 +2082,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
@@ -1993,16 +2093,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9CB25A-A0F7-4E2B-B2A8-1E0ACE86AF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2021,7 +2120,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2030,12 +2129,4 @@
     <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>